--- a/results/results_naive_method.xlsx
+++ b/results/results_naive_method.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Daniel/Documents/PredictiveWebBrowsing/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -36,13 +44,13 @@
     <t>Incremental learning</t>
   </si>
   <si>
-    <t>Cross validation setup</t>
-  </si>
-  <si>
     <t>all</t>
   </si>
   <si>
     <t>Confident interval (%)</t>
+  </si>
+  <si>
+    <t>Naive setup</t>
   </si>
 </sst>
 </file>
@@ -160,6 +168,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -488,11 +501,11 @@
   <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
@@ -501,9 +514,9 @@
     <col min="7" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="3" customFormat="1">
+    <row r="1" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -578,9 +591,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="3" customFormat="1">
+    <row r="2" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
@@ -655,7 +668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="3" customFormat="1">
+    <row r="3" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -732,9 +745,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>78.971533516999997</v>
@@ -809,7 +822,7 @@
         <v>82.798165137599995</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -886,7 +899,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -963,7 +976,7 @@
         <v>86.666666666699996</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1040,7 +1053,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1117,7 +1130,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1194,7 +1207,7 @@
         <v>61.290322580599998</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1271,7 +1284,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1348,7 +1361,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -1425,7 +1438,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -1502,7 +1515,7 @@
         <v>90.909090909100001</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -1579,7 +1592,7 @@
         <v>81.818181818200003</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -1656,7 +1669,7 @@
         <v>89.655172413800003</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>18</v>
       </c>
@@ -1733,7 +1746,7 @@
         <v>90.909090909100001</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>19</v>
       </c>
@@ -1810,7 +1823,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>21</v>
       </c>
@@ -1887,7 +1900,7 @@
         <v>92.592592592599999</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>22</v>
       </c>
@@ -1964,7 +1977,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>23</v>
       </c>
@@ -2041,7 +2054,7 @@
         <v>90.909090909100001</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>26</v>
       </c>
@@ -2121,10 +2134,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>